--- a/TSAutomation/Data/Config.xlsx
+++ b/TSAutomation/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uipath\TimesheetAutomation\TSAutomation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uipath\TimeSheetReporting\TSAutomation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07F0A79-4191-4513-AC5D-F2F6BC4D5BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6683A2-DFF5-4265-B8C1-AEFCCABFB556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
     <sheet name="EmailTemplate" sheetId="4" r:id="rId4"/>
+    <sheet name="VLookupLogic" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="171">
   <si>
     <t>Name</t>
   </si>
@@ -107,9 +107,6 @@
     <t>ReportName</t>
   </si>
   <si>
-    <t>Resource Timecard</t>
-  </si>
-  <si>
     <t>RetryTimeInterval</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
     <t>ListOfFiles</t>
   </si>
   <si>
-    <t>Default</t>
-  </si>
-  <si>
     <t>ArchiveFolderPath</t>
   </si>
   <si>
@@ -326,33 +320,9 @@
     <t>Conifg file path</t>
   </si>
   <si>
-    <t>Salesforce URL</t>
-  </si>
-  <si>
     <t>Timesheet Reporting</t>
   </si>
   <si>
-    <t>TSTimeSheetBaseDetailTemplateFilePath</t>
-  </si>
-  <si>
-    <t>TSCoreUtilizationTemplateFilePath</t>
-  </si>
-  <si>
-    <t>TSNonCoreUtilizationTemplateFilePath</t>
-  </si>
-  <si>
-    <t>TSFTETimeSheetTemplateFilePath</t>
-  </si>
-  <si>
-    <t>TSPartnerTimeSheetTemplateFilePath</t>
-  </si>
-  <si>
-    <t>TSWeeklyTrendTemplateFilePath</t>
-  </si>
-  <si>
-    <t>TSSalesForceApplicationURL</t>
-  </si>
-  <si>
     <t>TSThumbsupImageFilePath</t>
   </si>
   <si>
@@ -383,12 +353,6 @@
     <t>Timesheet Reporting Process Notification - Input Failure</t>
   </si>
   <si>
-    <t>1_TimeCard Summary,2_TimeCard Completion,1_UiPath FTE's weekly trend,ThumbsUp</t>
-  </si>
-  <si>
-    <t>1_TimeCard Summary,2_TimeCard Completion,2_Partner's weekly trend,ThumbsUp</t>
-  </si>
-  <si>
     <t>ErrorMessage_PageNotLoaded</t>
   </si>
   <si>
@@ -413,12 +377,6 @@
     <t>DelayMedium</t>
   </si>
   <si>
-    <t>&lt;p style='font-family:Calibri;font-size:11pt'&gt;Hello All:&lt;br&gt;&lt;br&gt;Request your help in completing the timesheet on time to achieve 100% compliance.&lt;/p&gt;&lt;ul style='font-family:Calibri;font-size:11pt'&gt;&lt;li&gt;#CompletedPercentage% of our team has completed the timecards on time,Thanks!&lt;img src="#ThumbsUp" alt="Thumbsup" style="width:6px"&gt; (As of today’s morning)&lt;/li&gt;&lt;li&gt;Others, kindly verify your completion status form attached sheet, and/or complete your timecard appropriately &amp; get it approved!&lt;/li&gt;&lt;/ul&gt;&lt;img src="#1_UiPath FTE's weekly trend" alt="WeeklyTrend" style="width:300px"&gt;&lt;br&gt;&lt;br&gt;&lt;img src="#1_TimeCard Summary" alt="Summary" style="width:300px"&gt;&lt;br&gt;&lt;br&gt;&lt;img src="#2_TimeCard Completion" alt="Completion" style="width:300px"&gt;&lt;br&gt;&lt;p style='font-family:Calibri;font-size:11pt'&gt;Please find the below list of employeesare not yet completed timesheet.&lt;/p&gt;&lt;style&gt;table {font-family: Calibri;font-size:9pt;border-collapse: collapse;width: 80%;}td, th {border: 1px solid #dddddd;text-align: left;padding:8px;}&lt;/style&gt;&lt;table&gt;&lt;tr&gt;&lt;th bgcolor="lightgreen"&gt;Timecard: OwnerName&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Company&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;TimeCard Update&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Total Hours&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Off-Hours&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Available Hours&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Billable Hours&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Professional Development&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Bandwidth&lt;/th&gt;&lt;/tr&gt;#DynamicTable&lt;/table&gt;&lt;p style='font-family:Calibri;font-size:11pt'&gt;Regards,&lt;br&gt;UiPath Bot&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p style='font-family:Calibri;font-size:11pt'&gt;Hello All:&lt;br&gt;&lt;br&gt;Request your help in completing the timesheet on time to achieve 100% compliance.&lt;/p&gt;&lt;ul style='font-family:Calibri;font-size:11pt'&gt;&lt;li&gt;#CompletedPercentage% of our Partner’s team has completed the timecards on time,Thanks!&lt;img src="#ThumbsUp" alt="Thumbsup" style="width:6px"&gt; (As of today’s morning)&lt;/li&gt;&lt;li&gt;Others, kindly verify your completion status form attached sheet, and/or complete your timecard appropriately &amp; get it approved!&lt;/li&gt;&lt;/ul&gt;&lt;img src="#2_Partner's weekly trend" alt="WeeklyTrend" style="width:300px"&gt;&lt;br&gt;&lt;br&gt;&lt;img src="#1_TimeCard Summary" alt="Summary" style="width:300px"&gt;&lt;br&gt;&lt;br&gt;&lt;img src="#2_TimeCard Completion" alt="Completion" style="width:300px"&gt;&lt;br&gt;&lt;p style='font-family:Calibri;font-size:11pt'&gt;Please find the below list of employeesare not yet completed timesheet.&lt;/p&gt;&lt;style&gt;table {font-family: Calibri;font-size:9pt;border-collapse: collapse;width: 80%;}td, th {border: 1px solid #dddddd;text-align: left;padding:8px;}&lt;/style&gt;&lt;table&gt;&lt;tr&gt;&lt;th bgcolor="lightgreen"&gt;Timecard: OwnerName&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Company&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;TimeCard Update&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Total Hours&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Off-Hours&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Available Hours&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Billable Hours&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Professional Development&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Bandwidth&lt;/th&gt;&lt;/tr&gt;#DynamicTable&lt;/table&gt;&lt;p style='font-family:Calibri;font-size:11pt'&gt;Regards,&lt;br&gt;UiPath Bot&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>No Results found in Salesforce application.</t>
   </si>
   <si>
@@ -438,6 +396,159 @@
   </si>
   <si>
     <t xml:space="preserve">Unable to click on saved report name - </t>
+  </si>
+  <si>
+    <t>TSReportFilePath</t>
+  </si>
+  <si>
+    <t>Total Hours</t>
+  </si>
+  <si>
+    <t>Off-Hours</t>
+  </si>
+  <si>
+    <t>Billable Hours</t>
+  </si>
+  <si>
+    <t>Internal Projects</t>
+  </si>
+  <si>
+    <t>Preparatory Work</t>
+  </si>
+  <si>
+    <t>Professional Development</t>
+  </si>
+  <si>
+    <t>Free Hours</t>
+  </si>
+  <si>
+    <t>VLookUpFieldName</t>
+  </si>
+  <si>
+    <t>PivotFieldName</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>PivotTableColumnHeaders</t>
+  </si>
+  <si>
+    <t>DateCellRange</t>
+  </si>
+  <si>
+    <t>AN2</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>F4:F#EndRange</t>
+  </si>
+  <si>
+    <t>G4:G#EndRange</t>
+  </si>
+  <si>
+    <t>H4:H#EndRange</t>
+  </si>
+  <si>
+    <t>I4:I#EndRange</t>
+  </si>
+  <si>
+    <t>J4:J#EndRange</t>
+  </si>
+  <si>
+    <t>K4:K#EndRange</t>
+  </si>
+  <si>
+    <t>L4:L#EndRange</t>
+  </si>
+  <si>
+    <t>Summary Column Range</t>
+  </si>
+  <si>
+    <t>Utilization Column Range</t>
+  </si>
+  <si>
+    <t>#=IFERROR(VLOOKUP([@[Timecard: Owner Name]],PivotResults!$A:$H,8,0),0)</t>
+  </si>
+  <si>
+    <t>#=IFERROR(VLOOKUP([@[Timecard: Owner Name]],PivotResults!$A:$H,5,0),0)</t>
+  </si>
+  <si>
+    <t>#=IFERROR(VLOOKUP([@[Timecard: Owner Name]],PivotResults!$A:$H,2,0),0)</t>
+  </si>
+  <si>
+    <t>#=IFERROR(VLOOKUP([@[Timecard: Owner Name]],PivotResults!$A:$H,4,0),0)</t>
+  </si>
+  <si>
+    <t>#=IFERROR(VLOOKUP([@[Timecard: Owner Name]],PivotResults!$A:$H,7,0),0)</t>
+  </si>
+  <si>
+    <t>#=IFERROR(VLOOKUP([@[Timecard: Owner Name]],PivotResults!$A:$H,3,0),0)</t>
+  </si>
+  <si>
+    <t>#=IFERROR(VLOOKUP([@[Timecard: Owner Name]],PivotResults!$A:$H,6,0),0)</t>
+  </si>
+  <si>
+    <t>E4:E#EndRange</t>
+  </si>
+  <si>
+    <t>A33:G35,A47:G49,A17:G19,A3:G5</t>
+  </si>
+  <si>
+    <t>Row Labels,Billable Hours,Professional Development,Internal Projects,Off hours,Free Hours,Preparatory Work</t>
+  </si>
+  <si>
+    <t>WeeklyTrendReportRange</t>
+  </si>
+  <si>
+    <t>TimeCard Summary,TimeCard Completion,Partner's weekly trend,ThumbsUp</t>
+  </si>
+  <si>
+    <t>TimeCard Summary,TimeCard Completion,UiPath FTE's weekly trend,ThumbsUp</t>
+  </si>
+  <si>
+    <t>Date on which the last archival happened</t>
+  </si>
+  <si>
+    <t>Thumbsup image file path</t>
+  </si>
+  <si>
+    <t>C:\Users\manoj.sharma\OneDrive - UiPath\TS Automation Process\ReportTemplate\PS - Core Utilization Report.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\manoj.sharma\OneDrive - UiPath\TS Automation Process\TSReports\</t>
+  </si>
+  <si>
+    <t>C:\Users\manoj.sharma\OneDrive - UiPath\TS Automation Process\ReportTemplate\PS - Non-Core Utilization Report.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\manoj.sharma\OneDrive - UiPath\TS Automation Process\ReportTemplate\TimeSheet Summary FTEs.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\manoj.sharma\OneDrive - UiPath\TS Automation Process\ReportTemplate\TimeSheet Summary Partner.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\manoj.sharma\OneDrive - UiPath\TS Automation Process\ReportTemplate\WeeklyTrendReport.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\manoj.sharma\OneDrive - UiPath\TS Automation Process\ReportTemplate\TimeSheetBaseDetails.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\manoj.sharma\OneDrive - UiPath\TS Automation Process\ReportTemplate\Thumbsup.png</t>
+  </si>
+  <si>
+    <t>https://uipath.lightning.force.com/lightning/page/home</t>
+  </si>
+  <si>
+    <t>TimeCard report _Monthly</t>
+  </si>
+  <si>
+    <t>&lt;p style='font-family:Calibri;font-size:11pt'&gt;Hello All:&lt;br&gt;&lt;br&gt;Request your help in completing the timesheet on time to achieve 100% compliance.&lt;/p&gt;&lt;ul style='font-family:Calibri;font-size:11pt'&gt;&lt;li&gt;#CompletedPercentage% of our team has completed the timecards on time,Thanks!&lt;img src="#ThumbsUp" alt="Thumbsup" style="width:6px"&gt; (As of today’s morning)&lt;/li&gt;&lt;li&gt;Others, kindly verify your completion status form attached sheet, and/or complete your timecard appropriately &amp; get it approved!&lt;/li&gt;&lt;/ul&gt;&lt;img img height="170" width="350" src="#UiPath FTE's weekly trend" alt="WeeklyTrend"&gt;&lt;br&gt;&lt;br&gt;&lt;img img height="170" width="350" src="#TimeCard Summary" alt="Summary"&gt;&lt;br&gt;&lt;br&gt;&lt;img img height="170" width="350" src="#TimeCard Completion" alt="Completion"&gt;&lt;br&gt;&lt;p style='font-family:Calibri;font-size:11pt'&gt;Please find the below list of employeesare not yet completed timesheet.&lt;/p&gt;&lt;style&gt;table {font-family: Calibri;font-size:9pt;border-collapse: collapse;width: 80%;}td, th {border: 1px solid #dddddd;text-align: left;padding:8px;}&lt;/style&gt;&lt;table&gt;&lt;tr&gt;&lt;th bgcolor="lightgreen"&gt;Timecard: OwnerName&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Company&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;TimeCard Update&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Total Hours&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Off-Hours&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Available Hours&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Billable Hours&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Professional Development&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Bandwidth&lt;/th&gt;&lt;/tr&gt;#DynamicTable&lt;/table&gt;&lt;p style='font-family:Calibri;font-size:11pt'&gt;Regards,&lt;br&gt;UiPath Bot&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p style='font-family:Calibri;font-size:11pt'&gt;Hello All:&lt;br&gt;&lt;br&gt;Request your help in completing the timesheet on time to achieve 100% compliance.&lt;/p&gt;&lt;ul style='font-family:Calibri;font-size:11pt'&gt;&lt;li&gt;#CompletedPercentage% of our Partner’s team has completed the timecards on time,Thanks!&lt;img src="#ThumbsUp" alt="Thumbsup" style="width:6px"&gt; (As of today’s morning)&lt;/li&gt;&lt;li&gt;Others, kindly verify your completion status form attached sheet, and/or complete your timecard appropriately &amp; get it approved!&lt;/li&gt;&lt;/ul&gt;&lt;img img height="170" width="350" src="#Partner's weekly trend" alt="WeeklyTrend"&gt;&lt;br&gt;&lt;br&gt;&lt;img img height="170" width="350" src="#TimeCard Summary" alt="Summary"&gt;&lt;br&gt;&lt;br&gt;&lt;img img height="170" width="350" src="#TimeCard Completion" alt="Completion"&gt;&lt;br&gt;&lt;p style='font-family:Calibri;font-size:11pt'&gt;Please find the below list of employeesare not yet completed timesheet.&lt;/p&gt;&lt;style&gt;table {font-family: Calibri;font-size:9pt;border-collapse: collapse;width: 80%;}td, th {border: 1px solid #dddddd;text-align: left;padding:8px;}&lt;/style&gt;&lt;table&gt;&lt;tr&gt;&lt;th bgcolor="lightgreen"&gt;Timecard: OwnerName&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Company&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;TimeCard Update&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Total Hours&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Off-Hours&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Available Hours&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Billable Hours&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Professional Development&lt;/th&gt;&lt;th bgcolor="lightgreen"&gt;Bandwidth&lt;/th&gt;&lt;/tr&gt;#DynamicTable&lt;/table&gt;&lt;p style='font-family:Calibri;font-size:11pt'&gt;Regards,&lt;br&gt;UiPath Bot&lt;br&gt;&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -455,6 +566,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -475,7 +587,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,6 +597,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -521,6 +639,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,7 +960,7 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -888,7 +1010,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
@@ -1896,16 +2018,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z988"/>
+  <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="83" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="65.77734375" customWidth="1"/>
+    <col min="2" max="2" width="110" customWidth="1"/>
     <col min="3" max="3" width="75.44140625" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
@@ -1946,13 +2068,13 @@
     </row>
     <row r="2" spans="1:26" ht="14.4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.4" customHeight="1">
@@ -1960,15 +2082,15 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.4" customHeight="1">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -1976,24 +2098,24 @@
     </row>
     <row r="5" spans="1:26" ht="14.4" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B5">
         <v>60</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.4">
@@ -2034,79 +2156,79 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="C15" s="10" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
@@ -2126,13 +2248,13 @@
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
         <v>76</v>
       </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
@@ -2140,117 +2262,225 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1">
-      <c r="A28" t="s">
+      <c r="A28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
         <v>71</v>
       </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
       <c r="C28" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A31" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A32" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="13.2" customHeight="1">
+      <c r="A33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="13.2" customHeight="1"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="36" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A40" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -3185,25 +3415,22 @@
     <row r="980" ht="14.25" customHeight="1"/>
     <row r="981" ht="14.25" customHeight="1"/>
     <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B41" r:id="rId1" xr:uid="{1B697181-7E97-4260-8331-09623D370E28}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3251,133 +3478,35 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
+      <c r="A2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
         <v>102</v>
       </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" t="s">
-        <v>112</v>
-      </c>
-    </row>
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4359,14 +4488,6 @@
     <row r="990" ht="14.25" customHeight="1"/>
     <row r="991" ht="14.25" customHeight="1"/>
     <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4378,11 +4499,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B010DE26-1D58-4E99-A07B-BE8A3AB2F2F4}">
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="4"/>
     <col min="2" max="2" width="26.77734375" style="4" customWidth="1"/>
@@ -4397,31 +4518,31 @@
   <sheetData>
     <row r="1" spans="1:24" ht="18">
       <c r="A1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4439,62 +4560,62 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" ht="115.2">
+    <row r="2" spans="1:24" ht="129.6">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="115.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="129.6">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="28.8">
@@ -4502,22 +4623,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="28.8">
@@ -4525,22 +4646,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -4568,4 +4689,209 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DE8D88-2B3F-4FAB-9B62-25C98185B90F}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.21875" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="13.2" customHeight="1"/>
+    <row r="13" spans="1:6" ht="13.2" customHeight="1"/>
+    <row r="14" spans="1:6" ht="13.2" customHeight="1"/>
+    <row r="15" spans="1:6" ht="13.2" customHeight="1"/>
+    <row r="16" spans="1:6" ht="13.2" customHeight="1"/>
+    <row r="17" ht="13.2" customHeight="1"/>
+    <row r="18" ht="13.2" customHeight="1"/>
+    <row r="19" ht="13.2" customHeight="1"/>
+    <row r="20" ht="13.2" customHeight="1"/>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:F9">
+    <sortCondition ref="F2:F9"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>